--- a/jour24.xlsx
+++ b/jour24.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Salmier', 'Salmier', 'Odobert', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Brassier', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Gouiri', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Ponceau', 'Talbi', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Martin', 'David']</t>
-  </si>
-  <si>
-    <t>['Diop', 'Beka', 'Laborde', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Nordin', 'Maouassa', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Embolo']</t>
+    <t>['Rajot']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Aouar', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Guessand']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Sibide', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Bain', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Vidal', 'Gonzalez']</t>
+  </si>
+  <si>
+    <t>['David', 'Andre', 'Gomes']</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Mbappe', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Bayo', 'Bayo']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Payet', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Doumbia']</t>
-  </si>
-  <si>
-    <t>['Merdji']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Dallinga', 'Aboukhlal', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Castelletto', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid']</t>
+    <t>['Wahi', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Mendy', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Balogin']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Pepe']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Lopez', 'Harit', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Mounie']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>4</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>

--- a/jour24.xlsx
+++ b/jour24.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Rajot']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Bercola', 'Aouar', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Sibide', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Vidal', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['David', 'Andre', 'Gomes']</t>
+    <t>['Gouiri', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Le_Douaron', 'Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Moffi']</t>
+  </si>
+  <si>
+    <t>['Ganago']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Bercola', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Silla', 'Diallo']</t>
+  </si>
+  <si>
+    <t>['Capelle']</t>
+  </si>
+  <si>
+    <t>['Serrano']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Mendy', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Balogin']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Pepe']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Lopez', 'Harit', 'Clauss']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Mounie']</t>
+    <t>['Salmier']</t>
+  </si>
+  <si>
+    <t>['Nordin']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Versini', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Zeneli']</t>
+  </si>
+  <si>
+    <t>['Rongier', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Le_Cardinal', 'Boura', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Innocent']</t>
+  </si>
+  <si>
+    <t>['David']</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Jeanvier', 'Pellenard', 'Autret']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jour24.xlsx
+++ b/jour24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Gouiri', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Le_Douaron', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['Moffi']</t>
-  </si>
-  <si>
-    <t>['Ganago']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Bercola', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Silla', 'Diallo']</t>
-  </si>
-  <si>
-    <t>['Capelle']</t>
-  </si>
-  <si>
-    <t>['Serrano']</t>
+    <t>['Silla', 'Alphonse', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Lemarechal', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Cabella', 'Andre']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Sakho']</t>
+  </si>
+  <si>
+    <t>['Mendy']</t>
+  </si>
+  <si>
+    <t>['Mothiba']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Salmier']</t>
-  </si>
-  <si>
-    <t>['Nordin']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Versini', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Zeneli']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Le_Cardinal', 'Boura', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Innocent']</t>
-  </si>
-  <si>
-    <t>['David']</t>
-  </si>
-  <si>
-    <t>['Merdji', 'Jeanvier', 'Pellenard', 'Autret']</t>
+    <t>['Delort', 'Pallois']</t>
+  </si>
+  <si>
+    <t>['Chavalerin', 'Chavalerin', 'Balde']</t>
+  </si>
+  <si>
+    <t>['Aouar']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Kabore', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Pereira', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Mendes']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Brahimi']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +546,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +558,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +570,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -593,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +599,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +628,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +657,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -694,10 +691,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +715,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +732,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,15 +744,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +761,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +773,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -810,10 +807,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/jour24.xlsx
+++ b/jour24.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +43,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Silla', 'Alphonse', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Lemarechal', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Andre']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Maurer']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Sakho']</t>
-  </si>
-  <si>
-    <t>['Mendy']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Mendes', 'Ruiz', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Onaiwu', 'Onaiwu', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Cabella', 'Gudmundsson', 'Gomes', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Maripan', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Vidal', 'Diallo', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Dugimont', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Caqueret']</t>
   </si>
   <si>
     <t>['Mothiba']</t>
   </si>
   <si>
+    <t>['Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Valencia']</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Le_Fee', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Perrin']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Elis']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>['Delort', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Chavalerin', 'Balde']</t>
-  </si>
-  <si>
-    <t>['Aouar']</t>
-  </si>
-  <si>
-    <t>['Gigot', 'Kabore', 'Clauss']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Pereira', 'Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Mendes']</t>
-  </si>
-  <si>
-    <t>['Santamaria', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Brahimi']</t>
+    <t>['Aouar', 'Gusto', 'Tagliafico', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Lepenant', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Caqueret', 'Bercola']</t>
   </si>
 </sst>
 </file>
@@ -512,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,295 +543,396 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>36</v>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
